--- a/InputData/trans/LCPC/LCFS Credit Price Cap.xlsx
+++ b/InputData/trans/LCPC/LCFS Credit Price Cap.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\World Resources Institute\TRAC City - HK 2050 is now\EPS v 1.43\InputData\trans\LCPC\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_136D42ADCF1B147F238FF14289454D048CAB1D0D" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="23955" windowHeight="12090"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -50,7 +44,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -107,9 +101,6 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -157,7 +148,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -190,26 +181,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -242,23 +216,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -434,10 +391,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -483,13 +440,13 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -749,6 +706,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -757,41 +723,14 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F106966-8FDA-45F2-97F0-397084FED458}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5AE9477-A1A0-4B81-A43B-480823B67D4E}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73F5F96E-E70D-49CB-9C6F-BF0DC4BD6DB5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="7889d872-e2a2-4afb-87bc-97561eced75f"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c9df191c-55f2-496b-9838-9a5abe4742ad"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3FF6B5EA-C501-488D-B1C6-18355B538C12}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{085AAFDF-B5F3-466C-9207-7869E00C99B0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E3F2ACC-D77C-46FB-85B1-605B7121B573}"/>
 </file>